--- a/data/trans_bre/P27_N_R5-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P27_N_R5-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>84,08%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>147,94%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>197,53%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>122,16%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>72,04%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>178,36%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.97619932318077</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.223650003328781</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.081904783336811</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.208189453996183</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1.78439196681648</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>2.797839123681662</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.071479721248774</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.479496687346969</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.972663024641475</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.087892056761794</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.7204065184192531</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1.757894102361188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 3,44</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 2,52</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 5,02</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 3,06</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 3,77</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 4,81</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-10,32; 286,76</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-4,18; 574,01</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>33,32; 524,51</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-27,92; 596,98</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 214,15</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>32,85; 456,08</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.1212347093598561</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.1280983763133874</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.229569939208756</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.3392502625036989</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.02988445974338758</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.978877406094659</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.0301246680620543</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.02931870573857424</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1644373895333837</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3391049826894246</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.001440244268331814</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.3257026231254205</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.124315748251373</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.445183455451506</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.11863020595502</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.865486413329736</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.770557166800905</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>4.752691728788908</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>3.51674535024477</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>5.954416294210431</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>5.289899981771703</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>5.512557331619226</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>2.141492956070578</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>4.506335413218095</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,15</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>122,8%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>137,59%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>231,48%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>55,77%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-35,72%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>219,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,1; 3,39</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 2,45</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 7,36</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 2,48</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; 2,09</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-0,24; 5,48</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-26,62; 609,47</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-27,53; 660,92</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>23,28; 804,71</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-48,34; 366,88</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-82,87; 146,6</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-55,22; 1378,79</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.437021038504802</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.055656195411946</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.944334198161695</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.8938355970738363</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-1.238512237931298</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>2.671600148050783</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.29170055144097</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.444950705414579</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.208643650214925</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.649531372761143</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.3571975759823892</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>2.32590267025672</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,16</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>71,44%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>114,27%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>777,14%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.121871261937066</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.04224198792913725</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.9822756306185253</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.7138894510509377</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.35492561028058</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.1318994545221457</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3240512675313142</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2409493230098705</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.1795863959229758</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.4617728917488231</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.8287436479114869</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.4851158835799189</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,87; 6,18</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 5,83</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 11,7</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 12,57</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-57,21; 1045,32</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.713095369895007</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.450288682394696</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.599832281016313</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.689880784684864</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>2.085741222724272</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>5.506163861146464</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>6.824053575464205</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>7.342094016308331</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>7.490317968955789</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>4.043395379237018</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.466044450999443</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>14.1118746440875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>93,47%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>135,21%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>250,39%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>143,66%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>40,76%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>187,33%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.2854371581153606</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.06689566240491</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.390822725792986</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.994964579596619</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.08018912015302931</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.179509687430691</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>9.329697064430327</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,33; 2,78</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 2,16</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,15; 5,1</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 2,93</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 2,71</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,25; 4,43</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>13,92; 244,04</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>19,78; 343,75</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>103,91; 528,49</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>27,7; 458,69</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-15,8; 125,55</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>50,97; 431,18</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.12754732237184</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.099628091857388</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>3.031352440483002</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.488875843039439</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.5417074526006352</v>
+      </c>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.038155292523194</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.651813356592307</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.23026887159661</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>12.28459099709466</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>9.94242121149648</v>
+      </c>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.507587321517501</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.248644963426238</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.418931992334203</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.524802427209596</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.106395971074261</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>2.780518749257857</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.8560714529836484</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.384353400917038</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>2.508392082950328</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.410632910359111</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.4076038929765172</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>1.873562270378084</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.1165074654395665</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.3674476863563946</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.056066952566229</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.4913481071844477</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.4662422325101938</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>1.217263982405182</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.002264504456630426</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.213561586801838</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.9619538478246059</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.2458659927347873</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1580388240613504</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.4999750356879428</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.878274748465917</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.131684022742256</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.939922421849932</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.882521849592393</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.710655985082591</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>4.365204225004755</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.487988140150806</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.55921375405778</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>5.30430630717942</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>4.578370291933979</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1.255470636286025</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>4.232361863077959</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1167,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
